--- a/data/trans_dic/P12B-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P12B-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que convive con personas que requieren cuidados especiales (incluyéndose a sí mismo)</t>
+          <t>Población que convive con personas que requieren cuidados especiales (incluyéndose a sí mismo) (tasa de respuesta: 99,71%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>7,94%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>12,84%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>20,1%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>10,28%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10,03%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9,82%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>13,94%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,82; 17,59</t>
+          <t>3,33; 23,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,16; 19,95</t>
+          <t>2,2; 21,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,48; 21,51</t>
+          <t>4,35; 25,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,73; 21,05</t>
+          <t>1,58; 17,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,69; 18,87</t>
+          <t>4,22; 22,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,57; 17,62</t>
+          <t>4,58; 23,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,87; 16,44</t>
+          <t>1,5; 17,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,69; 16,24</t>
+          <t>5,41; 49,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,14; 15,83</t>
+          <t>4,88; 18,5</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>4,94; 17,64</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>4,77; 17,57</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>5,05; 33,19</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>14,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>6,76%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7,8%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5,55%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>11,03%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,6; 15,17</t>
+          <t>3,91; 13,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,0; 16,37</t>
+          <t>4,66; 26,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,28; 17,72</t>
+          <t>2,32; 9,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,31; 12,1</t>
+          <t>7,31; 30,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,21; 8,94</t>
+          <t>3,68; 10,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,59; 14,49</t>
+          <t>2,67; 9,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,73; 11,91</t>
+          <t>3,27; 10,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,84; 11,29</t>
+          <t>4,17; 12,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,68; 13,51</t>
+          <t>4,64; 10,08</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>4,54; 14,74</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3,55; 8,24</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>6,89; 21,5</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>6,04%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5,66%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>8,13%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>9,18%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,53; 9,23</t>
+          <t>3,59; 13,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,98; 7,67</t>
+          <t>3,39; 12,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,86; 11,36</t>
+          <t>5,66; 16,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,22; 8,9</t>
+          <t>4,96; 16,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,11; 8,82</t>
+          <t>2,26; 9,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,0; 10,52</t>
+          <t>2,23; 8,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,57; 7,77</t>
+          <t>3,09; 10,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,17; 7,05</t>
+          <t>5,48; 14,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,77; 9,38</t>
+          <t>3,75; 9,13</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3,42; 8,74</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>5,4; 11,5</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>6,03; 12,79</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,23; 11,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,5; 12,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,86; 13,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,97; 10,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,94; 8,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,39; 11,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,17; 9,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,66; 9,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,81; 11,09</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7,63%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8,7%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8,29%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11,09%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6,4%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5,97%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6,04%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10,74%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6,97%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7,27%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7,14%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10,91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4,9; 10,8</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5,52; 16,73</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5,77; 11,94</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>7,13; 20,2</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4,36; 9,19</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4,06; 8,9</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3,99; 8,73</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>6,88; 17,75</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5,18; 8,83</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>5,39; 11,13</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5,44; 9,18</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>7,89; 16,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que convive con personas que requieren cuidados especiales (incluyéndose a sí mismo) (tasa de respuesta: 99,71%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>13138</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>8374</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>14654</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>11800</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>14757</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>13791</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8563</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>42240</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>27895</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>22165</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>23217</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>54040</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4292; 29980</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2316; 23150</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4959; 29527</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2799; 30907</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6011; 32121</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5291; 26819</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1833; 21468</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>11366; 103612</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>13253; 50198</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>10923; 38980</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>11290; 41569</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>19576; 128722</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>30858</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>38821</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>21583</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>70871</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>29398</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>20096</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>21451</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>36213</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>60256</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>58918</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>43034</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>107084</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>16779; 56357</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>17531; 98680</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>9259; 36685</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>36561; 153433</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>17028; 49426</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>10119; 34229</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>12272; 38552</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>19672; 60098</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>41374; 89899</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>34259; 111352</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>27537; 63857</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>66948; 208814</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>23982</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>19147</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>29166</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>31425</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>22019</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>16252</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>19834</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>36431</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>46002</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>35398</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>49000</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>67856</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11959; 44835</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9518; 35240</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15590; 46272</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>17399; 58085</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9675; 39564</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7702; 30104</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10104; 33735</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>21293; 58092</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>28573; 69472</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>21391; 54672</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>32524; 69347</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>44548; 94530</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>67978</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>66342</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>65403</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>114096</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>66174</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>50139</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>49848</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>114884</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>134152</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>116481</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>115250</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>228979</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>43699; 96272</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>42104; 127568</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>45545; 94179</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>73327; 207724</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>45009; 94969</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>34113; 74728</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>32943; 72050</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>73567; 189849</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>99778; 169873</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>86408; 178250</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>87876; 148231</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>165626; 335778</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
